--- a/pandemic/AUS_COVID19Data.xlsx
+++ b/pandemic/AUS_COVID19Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300ADA58-F081-4B5D-B403-B9BC32226910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218E5D9C-D3B2-4839-97D9-CEDEB2613570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="593" firstSheet="1" activeTab="5" xr2:uid="{48E097D3-437B-4563-A81C-0B504BB83A01}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="593" xr2:uid="{48E097D3-437B-4563-A81C-0B504BB83A01}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 case notifications" sheetId="1" r:id="rId1"/>
@@ -1530,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67B621B-1D82-42B2-8700-DD1E18F333FA}">
   <dimension ref="A1:S390"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -106497,8 +106497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD3EE7C-3351-4CFC-AE7D-E2DEFE6455A2}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/pandemic/AUS_COVID19Data.xlsx
+++ b/pandemic/AUS_COVID19Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F329E60D-0475-4B2F-8369-EE65DF27A645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE5DF50-2D58-4DA4-AA75-C984EB385275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="593" xr2:uid="{48E097D3-437B-4563-A81C-0B504BB83A01}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="593" xr2:uid="{48E097D3-437B-4563-A81C-0B504BB83A01}"/>
   </bookViews>
   <sheets>
     <sheet name="COVID-19 case notifications" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="396">
   <si>
     <t>DATE</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>https://www.healthdirect.gov.au/covid-19/hospital-and-intensive-care</t>
-  </si>
-  <si>
-    <t>Only includes NT after 10 January 2022 as NT hospitalised all cases until 10 January 2022. NSW and QLD hospital and ICU occupancy data is only available for weekdays.</t>
   </si>
   <si>
     <t>COVID-19 impact on residential aged care homes</t>
@@ -1187,25 +1184,46 @@
     <t>22/02/2023</t>
   </si>
   <si>
-    <t>Data accessed 24th February 2023</t>
+    <t>23/02/2023</t>
   </si>
   <si>
-    <t>Source: Jurisdictional reporting as at 21 Feb 2023. Please note that due to rounding, jurisdiction averages may not sum exactly to national averages.</t>
+    <t>24/02/2023</t>
   </si>
   <si>
-    <t>Source: National Notifiable Diseases Surveillance System as at 22 Feb 2023</t>
+    <t>25/02/2023</t>
   </si>
   <si>
-    <t>Source: PBS; included Pharmaceutical Benefits Scheme (PBS) &amp; Repatriation Pharmaceutical Benefits Scheme (RPBS) patients, as at 21 Feb 2023</t>
+    <t>26/02/2023</t>
   </si>
   <si>
-    <t>Source: Jurisdictional reporting, as at 21 Feb 2023. Please note that due to rounding, jurisdiction averages may not sum exactly to national averages.</t>
+    <t>27/02/2023</t>
   </si>
   <si>
-    <t>Source: Critical Health Resources Information System (CHRIS), as at 22 Feb 2023</t>
+    <t>28/02/2023</t>
   </si>
   <si>
-    <t>Source: AUS CAIRS, as at 22 Feb 2023</t>
+    <t>Data accessed 3rd March 2023</t>
+  </si>
+  <si>
+    <t>Source: Jurisdictional reporting as at 1 March 2023. Please note that due to rounding, jurisdiction averages may not sum exactly to national averages.</t>
+  </si>
+  <si>
+    <t>Source: National Notifiable Diseases Surveillance System as at 01 Mar 2023</t>
+  </si>
+  <si>
+    <t>Source: PBS; included Pharmaceutical Benefits Scheme (PBS) &amp; Repatriation Pharmaceutical Benefits Scheme (RPBS) patients, for week ending 26 Feb 2023, extracted on 2 March 2023.</t>
+  </si>
+  <si>
+    <t>Source: Jurisdictional reporting, as at 1 March 2023. Please note that due to rounding, jurisdiction averages may not sum exactly to national averages.</t>
+  </si>
+  <si>
+    <t>Only includes NT after 10 January 2022 as NT hospitalised all cases until 10 January 2022. ACT hospital and ICU data was not available between 13 November 2022 and 24 November 2022. QLD ICU occupancy data was unavailable between 23 December 2022 and 1 January 2023. NSW and QLD hospital and ICU occupancy data is only available for weekdays.</t>
+  </si>
+  <si>
+    <t>Source: Critical Health Resources Information System (CHRIS), as at 1 March 2023</t>
+  </si>
+  <si>
+    <t>Source: My Aged Care Provider Portal, as at 2 March 2023</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1585,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67B621B-1D82-42B2-8700-DD1E18F333FA}">
-  <dimension ref="A1:S418"/>
+  <dimension ref="A1:S425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1644,31 +1662,31 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" t="s">
         <v>118</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>119</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>120</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>122</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>123</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>124</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>125</v>
-      </c>
-      <c r="S1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -26086,6 +26104,419 @@
       </c>
       <c r="S418">
         <v>15</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B419">
+        <v>2823</v>
+      </c>
+      <c r="C419">
+        <v>1024</v>
+      </c>
+      <c r="D419">
+        <v>423</v>
+      </c>
+      <c r="E419">
+        <v>579</v>
+      </c>
+      <c r="F419">
+        <v>343</v>
+      </c>
+      <c r="G419">
+        <v>285</v>
+      </c>
+      <c r="H419">
+        <v>74</v>
+      </c>
+      <c r="I419">
+        <v>79</v>
+      </c>
+      <c r="J419">
+        <v>16</v>
+      </c>
+      <c r="K419">
+        <v>2616</v>
+      </c>
+      <c r="L419">
+        <v>942</v>
+      </c>
+      <c r="M419">
+        <v>436</v>
+      </c>
+      <c r="N419">
+        <v>504</v>
+      </c>
+      <c r="O419">
+        <v>324</v>
+      </c>
+      <c r="P419">
+        <v>255</v>
+      </c>
+      <c r="Q419">
+        <v>67</v>
+      </c>
+      <c r="R419">
+        <v>73</v>
+      </c>
+      <c r="S419">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B420">
+        <v>2712</v>
+      </c>
+      <c r="C420">
+        <v>935</v>
+      </c>
+      <c r="D420">
+        <v>421</v>
+      </c>
+      <c r="E420">
+        <v>602</v>
+      </c>
+      <c r="F420">
+        <v>310</v>
+      </c>
+      <c r="G420">
+        <v>263</v>
+      </c>
+      <c r="H420">
+        <v>89</v>
+      </c>
+      <c r="I420">
+        <v>75</v>
+      </c>
+      <c r="J420">
+        <v>17</v>
+      </c>
+      <c r="K420">
+        <v>2627</v>
+      </c>
+      <c r="L420">
+        <v>936</v>
+      </c>
+      <c r="M420">
+        <v>436</v>
+      </c>
+      <c r="N420">
+        <v>515</v>
+      </c>
+      <c r="O420">
+        <v>325</v>
+      </c>
+      <c r="P420">
+        <v>255</v>
+      </c>
+      <c r="Q420">
+        <v>70</v>
+      </c>
+      <c r="R420">
+        <v>75</v>
+      </c>
+      <c r="S420">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B421">
+        <v>2498</v>
+      </c>
+      <c r="C421">
+        <v>987</v>
+      </c>
+      <c r="D421">
+        <v>383</v>
+      </c>
+      <c r="E421">
+        <v>530</v>
+      </c>
+      <c r="F421">
+        <v>262</v>
+      </c>
+      <c r="G421">
+        <v>202</v>
+      </c>
+      <c r="H421">
+        <v>78</v>
+      </c>
+      <c r="I421">
+        <v>48</v>
+      </c>
+      <c r="J421">
+        <v>8</v>
+      </c>
+      <c r="K421">
+        <v>2629</v>
+      </c>
+      <c r="L421">
+        <v>961</v>
+      </c>
+      <c r="M421">
+        <v>411</v>
+      </c>
+      <c r="N421">
+        <v>528</v>
+      </c>
+      <c r="O421">
+        <v>322</v>
+      </c>
+      <c r="P421">
+        <v>247</v>
+      </c>
+      <c r="Q421">
+        <v>76</v>
+      </c>
+      <c r="R421">
+        <v>69</v>
+      </c>
+      <c r="S421">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B422">
+        <v>2034</v>
+      </c>
+      <c r="C422">
+        <v>810</v>
+      </c>
+      <c r="D422">
+        <v>301</v>
+      </c>
+      <c r="E422">
+        <v>379</v>
+      </c>
+      <c r="F422">
+        <v>243</v>
+      </c>
+      <c r="G422">
+        <v>176</v>
+      </c>
+      <c r="H422">
+        <v>67</v>
+      </c>
+      <c r="I422">
+        <v>50</v>
+      </c>
+      <c r="J422">
+        <v>8</v>
+      </c>
+      <c r="K422">
+        <v>2644</v>
+      </c>
+      <c r="L422">
+        <v>978</v>
+      </c>
+      <c r="M422">
+        <v>411</v>
+      </c>
+      <c r="N422">
+        <v>530</v>
+      </c>
+      <c r="O422">
+        <v>323</v>
+      </c>
+      <c r="P422">
+        <v>241</v>
+      </c>
+      <c r="Q422">
+        <v>78</v>
+      </c>
+      <c r="R422">
+        <v>69</v>
+      </c>
+      <c r="S422">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>44983</v>
+      </c>
+      <c r="B423">
+        <v>2132</v>
+      </c>
+      <c r="C423">
+        <v>810</v>
+      </c>
+      <c r="D423">
+        <v>331</v>
+      </c>
+      <c r="E423">
+        <v>396</v>
+      </c>
+      <c r="F423">
+        <v>249</v>
+      </c>
+      <c r="G423">
+        <v>204</v>
+      </c>
+      <c r="H423">
+        <v>74</v>
+      </c>
+      <c r="I423">
+        <v>59</v>
+      </c>
+      <c r="J423">
+        <v>9</v>
+      </c>
+      <c r="K423">
+        <v>2652</v>
+      </c>
+      <c r="L423">
+        <v>995</v>
+      </c>
+      <c r="M423">
+        <v>406</v>
+      </c>
+      <c r="N423">
+        <v>527</v>
+      </c>
+      <c r="O423">
+        <v>316</v>
+      </c>
+      <c r="P423">
+        <v>244</v>
+      </c>
+      <c r="Q423">
+        <v>81</v>
+      </c>
+      <c r="R423">
+        <v>69</v>
+      </c>
+      <c r="S423">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B424">
+        <v>2986</v>
+      </c>
+      <c r="C424">
+        <v>811</v>
+      </c>
+      <c r="D424">
+        <v>630</v>
+      </c>
+      <c r="E424">
+        <v>596</v>
+      </c>
+      <c r="F424">
+        <v>449</v>
+      </c>
+      <c r="G424">
+        <v>288</v>
+      </c>
+      <c r="H424">
+        <v>107</v>
+      </c>
+      <c r="I424">
+        <v>85</v>
+      </c>
+      <c r="J424">
+        <v>20</v>
+      </c>
+      <c r="K424">
+        <v>2695</v>
+      </c>
+      <c r="L424">
+        <v>1013</v>
+      </c>
+      <c r="M424">
+        <v>422</v>
+      </c>
+      <c r="N424">
+        <v>526</v>
+      </c>
+      <c r="O424">
+        <v>321</v>
+      </c>
+      <c r="P424">
+        <v>247</v>
+      </c>
+      <c r="Q424">
+        <v>83</v>
+      </c>
+      <c r="R424">
+        <v>70</v>
+      </c>
+      <c r="S424">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B425">
+        <v>3338</v>
+      </c>
+      <c r="C425">
+        <v>1317</v>
+      </c>
+      <c r="D425">
+        <v>492</v>
+      </c>
+      <c r="E425">
+        <v>617</v>
+      </c>
+      <c r="F425">
+        <v>436</v>
+      </c>
+      <c r="G425">
+        <v>255</v>
+      </c>
+      <c r="H425">
+        <v>91</v>
+      </c>
+      <c r="I425">
+        <v>118</v>
+      </c>
+      <c r="J425">
+        <v>12</v>
+      </c>
+      <c r="K425">
+        <v>2646</v>
+      </c>
+      <c r="L425">
+        <v>956</v>
+      </c>
+      <c r="M425">
+        <v>426</v>
+      </c>
+      <c r="N425">
+        <v>528</v>
+      </c>
+      <c r="O425">
+        <v>327</v>
+      </c>
+      <c r="P425">
+        <v>239</v>
+      </c>
+      <c r="Q425">
+        <v>83</v>
+      </c>
+      <c r="R425">
+        <v>73</v>
+      </c>
+      <c r="S425">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -26096,7 +26527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F6662C-7172-4439-854B-8EBD35B02099}">
-  <dimension ref="A1:U418"/>
+  <dimension ref="A1:U425"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29075,7 +29506,7 @@
         <v>44649</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89">
         <v>25</v>
@@ -29233,7 +29664,7 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -29268,7 +29699,7 @@
         <v>4</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -31735,7 +32166,7 @@
         <v>44725</v>
       </c>
       <c r="B165">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D165">
         <v>47</v>
@@ -31843,7 +32274,7 @@
         <v>44</v>
       </c>
       <c r="D168">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E168">
         <v>14</v>
@@ -31919,7 +32350,7 @@
         <v>14</v>
       </c>
       <c r="F170">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G170">
         <v>7</v>
@@ -34850,10 +35281,10 @@
         <v>44814</v>
       </c>
       <c r="B254">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D254">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E254">
         <v>13</v>
@@ -38175,7 +38606,7 @@
         <v>44909</v>
       </c>
       <c r="B349">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D349">
         <v>40</v>
@@ -38228,7 +38659,7 @@
         <v>4</v>
       </c>
       <c r="I350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J350">
         <v>1</v>
@@ -38280,7 +38711,7 @@
         <v>44912</v>
       </c>
       <c r="B352">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D352">
         <v>42</v>
@@ -38318,7 +38749,7 @@
         <v>49</v>
       </c>
       <c r="D353">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E353">
         <v>11</v>
@@ -38353,7 +38784,7 @@
         <v>47</v>
       </c>
       <c r="D354">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E354">
         <v>11</v>
@@ -38368,7 +38799,7 @@
         <v>3</v>
       </c>
       <c r="I354">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J354">
         <v>1</v>
@@ -38438,7 +38869,7 @@
         <v>4</v>
       </c>
       <c r="I356">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J356">
         <v>1</v>
@@ -38455,7 +38886,7 @@
         <v>44917</v>
       </c>
       <c r="B357">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D357">
         <v>45</v>
@@ -38493,7 +38924,7 @@
         <v>50</v>
       </c>
       <c r="D358">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E358">
         <v>14</v>
@@ -38508,7 +38939,7 @@
         <v>4</v>
       </c>
       <c r="I358">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J358">
         <v>1</v>
@@ -38560,10 +38991,10 @@
         <v>44920</v>
       </c>
       <c r="B360">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D360">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E360">
         <v>15</v>
@@ -38595,7 +39026,7 @@
         <v>44921</v>
       </c>
       <c r="B361">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D361">
         <v>48</v>
@@ -38613,7 +39044,7 @@
         <v>4</v>
       </c>
       <c r="I361">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J361">
         <v>1</v>
@@ -38630,13 +39061,13 @@
         <v>44922</v>
       </c>
       <c r="B362">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D362">
         <v>49</v>
       </c>
       <c r="E362">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F362">
         <v>19</v>
@@ -38668,7 +39099,7 @@
         <v>50</v>
       </c>
       <c r="D363">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E363">
         <v>16</v>
@@ -38683,7 +39114,7 @@
         <v>3</v>
       </c>
       <c r="I363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J363">
         <v>1</v>
@@ -38703,10 +39134,10 @@
         <v>57</v>
       </c>
       <c r="D364">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E364">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F364">
         <v>20</v>
@@ -38735,10 +39166,10 @@
         <v>44925</v>
       </c>
       <c r="B365">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D365">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E365">
         <v>17</v>
@@ -38753,7 +39184,7 @@
         <v>3</v>
       </c>
       <c r="I365">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J365">
         <v>0</v>
@@ -38770,13 +39201,13 @@
         <v>44926</v>
       </c>
       <c r="B366">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D366">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E366">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F366">
         <v>20</v>
@@ -38858,7 +39289,7 @@
         <v>2</v>
       </c>
       <c r="I368">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J368">
         <v>1</v>
@@ -38893,7 +39324,7 @@
         <v>2</v>
       </c>
       <c r="I369">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J369">
         <v>1</v>
@@ -38910,7 +39341,7 @@
         <v>44930</v>
       </c>
       <c r="B370">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D370">
         <v>53</v>
@@ -38945,13 +39376,13 @@
         <v>44931</v>
       </c>
       <c r="B371">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D371">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E371">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F371">
         <v>17</v>
@@ -38986,7 +39417,7 @@
         <v>51</v>
       </c>
       <c r="E372">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F372">
         <v>17</v>
@@ -39015,10 +39446,10 @@
         <v>44933</v>
       </c>
       <c r="B373">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D373">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E373">
         <v>16</v>
@@ -39050,10 +39481,10 @@
         <v>44934</v>
       </c>
       <c r="B374">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D374">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E374">
         <v>15</v>
@@ -39088,10 +39519,10 @@
         <v>43</v>
       </c>
       <c r="D375">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E375">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F375">
         <v>18</v>
@@ -39100,7 +39531,7 @@
         <v>7</v>
       </c>
       <c r="H375">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I375">
         <v>4</v>
@@ -39135,7 +39566,7 @@
         <v>7</v>
       </c>
       <c r="H376">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I376">
         <v>4</v>
@@ -39228,10 +39659,10 @@
         <v>37</v>
       </c>
       <c r="D379">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E379">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F379">
         <v>18</v>
@@ -39610,10 +40041,10 @@
         <v>44950</v>
       </c>
       <c r="B390">
+        <v>29</v>
+      </c>
+      <c r="D390">
         <v>27</v>
-      </c>
-      <c r="D390">
-        <v>26</v>
       </c>
       <c r="E390">
         <v>8</v>
@@ -39648,7 +40079,7 @@
         <v>18</v>
       </c>
       <c r="D391">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E391">
         <v>7</v>
@@ -39657,7 +40088,7 @@
         <v>10</v>
       </c>
       <c r="G391">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H391">
         <v>2</v>
@@ -39692,7 +40123,7 @@
         <v>10</v>
       </c>
       <c r="G392">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H392">
         <v>1</v>
@@ -39788,7 +40219,7 @@
         <v>19</v>
       </c>
       <c r="D395">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E395">
         <v>7</v>
@@ -39797,7 +40228,7 @@
         <v>9</v>
       </c>
       <c r="G395">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H395">
         <v>1</v>
@@ -39820,10 +40251,10 @@
         <v>44956</v>
       </c>
       <c r="B396">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D396">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E396">
         <v>7</v>
@@ -39855,7 +40286,7 @@
         <v>44957</v>
       </c>
       <c r="B397">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D397">
         <v>20</v>
@@ -39890,19 +40321,19 @@
         <v>44958</v>
       </c>
       <c r="B398">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D398">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E398">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F398">
         <v>7</v>
       </c>
       <c r="G398">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H398">
         <v>1</v>
@@ -39928,7 +40359,7 @@
         <v>10</v>
       </c>
       <c r="D399">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E399">
         <v>6</v>
@@ -39937,7 +40368,7 @@
         <v>6</v>
       </c>
       <c r="G399">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H399">
         <v>1</v>
@@ -39960,13 +40391,13 @@
         <v>44960</v>
       </c>
       <c r="B400">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D400">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E400">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F400">
         <v>6</v>
@@ -40001,7 +40432,7 @@
         <v>15</v>
       </c>
       <c r="E401">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F401">
         <v>5</v>
@@ -40030,13 +40461,13 @@
         <v>44962</v>
       </c>
       <c r="B402">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D402">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E402">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F402">
         <v>6</v>
@@ -40068,7 +40499,7 @@
         <v>10</v>
       </c>
       <c r="D403">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E403">
         <v>3</v>
@@ -40099,34 +40530,34 @@
       <c r="A404" s="2">
         <v>44964</v>
       </c>
-      <c r="C404">
-        <v>8</v>
-      </c>
-      <c r="M404">
-        <v>11</v>
-      </c>
-      <c r="N404">
+      <c r="B404">
+        <v>9</v>
+      </c>
+      <c r="D404">
+        <v>12</v>
+      </c>
+      <c r="E404">
         <v>2</v>
       </c>
-      <c r="O404">
+      <c r="F404">
         <v>5</v>
       </c>
-      <c r="P404">
+      <c r="G404">
         <v>3</v>
       </c>
-      <c r="Q404">
-        <v>0</v>
-      </c>
-      <c r="R404">
-        <v>1</v>
-      </c>
-      <c r="S404">
-        <v>0</v>
-      </c>
-      <c r="T404">
-        <v>0</v>
-      </c>
-      <c r="U404">
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>1</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
         <v>0</v>
       </c>
     </row>
@@ -40134,34 +40565,34 @@
       <c r="A405" s="2">
         <v>44965</v>
       </c>
-      <c r="C405">
+      <c r="B405">
+        <v>12</v>
+      </c>
+      <c r="D405">
         <v>11</v>
       </c>
-      <c r="M405">
-        <v>11</v>
-      </c>
-      <c r="N405">
+      <c r="E405">
+        <v>3</v>
+      </c>
+      <c r="F405">
+        <v>5</v>
+      </c>
+      <c r="G405">
         <v>2</v>
       </c>
-      <c r="O405">
-        <v>5</v>
-      </c>
-      <c r="P405">
-        <v>2</v>
-      </c>
-      <c r="Q405">
-        <v>0</v>
-      </c>
-      <c r="R405">
-        <v>1</v>
-      </c>
-      <c r="S405">
-        <v>0</v>
-      </c>
-      <c r="T405">
-        <v>0</v>
-      </c>
-      <c r="U405">
+      <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
+        <v>1</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405">
         <v>0</v>
       </c>
     </row>
@@ -40169,34 +40600,34 @@
       <c r="A406" s="2">
         <v>44966</v>
       </c>
-      <c r="C406">
-        <v>15</v>
-      </c>
-      <c r="M406">
-        <v>11</v>
-      </c>
-      <c r="N406">
+      <c r="B406">
+        <v>16</v>
+      </c>
+      <c r="D406">
+        <v>12</v>
+      </c>
+      <c r="E406">
         <v>3</v>
       </c>
-      <c r="O406">
+      <c r="F406">
         <v>6</v>
       </c>
-      <c r="P406">
+      <c r="G406">
         <v>2</v>
       </c>
-      <c r="Q406">
-        <v>0</v>
-      </c>
-      <c r="R406">
-        <v>1</v>
-      </c>
-      <c r="S406">
-        <v>0</v>
-      </c>
-      <c r="T406">
-        <v>0</v>
-      </c>
-      <c r="U406">
+      <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
         <v>0</v>
       </c>
     </row>
@@ -40204,34 +40635,34 @@
       <c r="A407" s="2">
         <v>44967</v>
       </c>
-      <c r="C407">
-        <v>6</v>
-      </c>
-      <c r="M407">
-        <v>10</v>
-      </c>
-      <c r="N407">
-        <v>2</v>
-      </c>
-      <c r="O407">
+      <c r="B407">
+        <v>7</v>
+      </c>
+      <c r="D407">
+        <v>11</v>
+      </c>
+      <c r="E407">
+        <v>3</v>
+      </c>
+      <c r="F407">
         <v>5</v>
       </c>
-      <c r="P407">
-        <v>1</v>
-      </c>
-      <c r="Q407">
-        <v>0</v>
-      </c>
-      <c r="R407">
-        <v>1</v>
-      </c>
-      <c r="S407">
-        <v>0</v>
-      </c>
-      <c r="T407">
-        <v>0</v>
-      </c>
-      <c r="U407">
+      <c r="G407">
+        <v>1</v>
+      </c>
+      <c r="H407">
+        <v>0</v>
+      </c>
+      <c r="I407">
+        <v>1</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
         <v>0</v>
       </c>
     </row>
@@ -40239,34 +40670,34 @@
       <c r="A408" s="2">
         <v>44968</v>
       </c>
-      <c r="C408">
-        <v>8</v>
-      </c>
-      <c r="M408">
+      <c r="B408">
         <v>11</v>
       </c>
-      <c r="N408">
+      <c r="D408">
+        <v>12</v>
+      </c>
+      <c r="E408">
         <v>3</v>
       </c>
-      <c r="O408">
+      <c r="F408">
         <v>5</v>
       </c>
-      <c r="P408">
-        <v>1</v>
-      </c>
-      <c r="Q408">
-        <v>0</v>
-      </c>
-      <c r="R408">
-        <v>1</v>
-      </c>
-      <c r="S408">
-        <v>0</v>
-      </c>
-      <c r="T408">
-        <v>0</v>
-      </c>
-      <c r="U408">
+      <c r="G408">
+        <v>2</v>
+      </c>
+      <c r="H408">
+        <v>0</v>
+      </c>
+      <c r="I408">
+        <v>1</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
         <v>0</v>
       </c>
     </row>
@@ -40274,34 +40705,34 @@
       <c r="A409" s="2">
         <v>44969</v>
       </c>
-      <c r="C409">
-        <v>7</v>
-      </c>
-      <c r="M409">
-        <v>9</v>
-      </c>
-      <c r="N409">
-        <v>2</v>
-      </c>
-      <c r="O409">
+      <c r="B409">
+        <v>11</v>
+      </c>
+      <c r="D409">
+        <v>11</v>
+      </c>
+      <c r="E409">
+        <v>3</v>
+      </c>
+      <c r="F409">
         <v>4</v>
       </c>
-      <c r="P409">
-        <v>1</v>
-      </c>
-      <c r="Q409">
-        <v>0</v>
-      </c>
-      <c r="R409">
-        <v>1</v>
-      </c>
-      <c r="S409">
-        <v>0</v>
-      </c>
-      <c r="T409">
-        <v>0</v>
-      </c>
-      <c r="U409">
+      <c r="G409">
+        <v>1</v>
+      </c>
+      <c r="H409">
+        <v>0</v>
+      </c>
+      <c r="I409">
+        <v>1</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
         <v>0</v>
       </c>
     </row>
@@ -40309,34 +40740,34 @@
       <c r="A410" s="2">
         <v>44970</v>
       </c>
-      <c r="C410">
-        <v>15</v>
-      </c>
-      <c r="M410">
-        <v>10</v>
-      </c>
-      <c r="N410">
+      <c r="B410">
+        <v>16</v>
+      </c>
+      <c r="D410">
+        <v>12</v>
+      </c>
+      <c r="E410">
+        <v>4</v>
+      </c>
+      <c r="F410">
+        <v>5</v>
+      </c>
+      <c r="G410">
         <v>2</v>
       </c>
-      <c r="O410">
-        <v>5</v>
-      </c>
-      <c r="P410">
-        <v>1</v>
-      </c>
-      <c r="Q410">
-        <v>0</v>
-      </c>
-      <c r="R410">
-        <v>1</v>
-      </c>
-      <c r="S410">
-        <v>0</v>
-      </c>
-      <c r="T410">
-        <v>0</v>
-      </c>
-      <c r="U410">
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>1</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
         <v>0</v>
       </c>
     </row>
@@ -40345,16 +40776,16 @@
         <v>44971</v>
       </c>
       <c r="C411">
+        <v>8</v>
+      </c>
+      <c r="M411">
+        <v>12</v>
+      </c>
+      <c r="N411">
+        <v>4</v>
+      </c>
+      <c r="O411">
         <v>5</v>
-      </c>
-      <c r="M411">
-        <v>10</v>
-      </c>
-      <c r="N411">
-        <v>2</v>
-      </c>
-      <c r="O411">
-        <v>4</v>
       </c>
       <c r="P411">
         <v>1</v>
@@ -40380,13 +40811,13 @@
         <v>44972</v>
       </c>
       <c r="C412">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M412">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N412">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O412">
         <v>5</v>
@@ -40415,19 +40846,19 @@
         <v>44973</v>
       </c>
       <c r="C413">
+        <v>7</v>
+      </c>
+      <c r="M413">
+        <v>9</v>
+      </c>
+      <c r="N413">
         <v>2</v>
-      </c>
-      <c r="M413">
-        <v>7</v>
-      </c>
-      <c r="N413">
-        <v>1</v>
       </c>
       <c r="O413">
         <v>4</v>
       </c>
       <c r="P413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q413">
         <v>0</v>
@@ -40450,19 +40881,19 @@
         <v>44974</v>
       </c>
       <c r="C414">
+        <v>8</v>
+      </c>
+      <c r="M414">
+        <v>10</v>
+      </c>
+      <c r="N414">
+        <v>2</v>
+      </c>
+      <c r="O414">
         <v>4</v>
       </c>
-      <c r="M414">
-        <v>6</v>
-      </c>
-      <c r="N414">
-        <v>1</v>
-      </c>
-      <c r="O414">
-        <v>3</v>
-      </c>
       <c r="P414">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q414">
         <v>0</v>
@@ -40485,19 +40916,19 @@
         <v>44975</v>
       </c>
       <c r="C415">
+        <v>6</v>
+      </c>
+      <c r="M415">
+        <v>9</v>
+      </c>
+      <c r="N415">
         <v>2</v>
       </c>
-      <c r="M415">
-        <v>6</v>
-      </c>
-      <c r="N415">
-        <v>1</v>
-      </c>
       <c r="O415">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q415">
         <v>0</v>
@@ -40520,19 +40951,19 @@
         <v>44976</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M416">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O416">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q416">
         <v>0</v>
@@ -40555,19 +40986,19 @@
         <v>44977</v>
       </c>
       <c r="C417">
+        <v>8</v>
+      </c>
+      <c r="M417">
         <v>6</v>
       </c>
-      <c r="M417">
+      <c r="N417">
+        <v>1</v>
+      </c>
+      <c r="O417">
         <v>3</v>
       </c>
-      <c r="N417">
-        <v>0</v>
-      </c>
-      <c r="O417">
-        <v>2</v>
-      </c>
       <c r="P417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q417">
         <v>0</v>
@@ -40590,33 +41021,278 @@
         <v>44978</v>
       </c>
       <c r="C418">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M418">
+        <v>6</v>
+      </c>
+      <c r="N418">
+        <v>1</v>
+      </c>
+      <c r="O418">
         <v>3</v>
       </c>
-      <c r="N418">
-        <v>0</v>
-      </c>
-      <c r="O418">
+      <c r="P418">
+        <v>1</v>
+      </c>
+      <c r="Q418">
+        <v>0</v>
+      </c>
+      <c r="R418">
+        <v>0</v>
+      </c>
+      <c r="S418">
+        <v>0</v>
+      </c>
+      <c r="T418">
+        <v>0</v>
+      </c>
+      <c r="U418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>44979</v>
+      </c>
+      <c r="C419">
         <v>2</v>
       </c>
-      <c r="P418">
-        <v>0</v>
-      </c>
-      <c r="Q418">
-        <v>0</v>
-      </c>
-      <c r="R418">
-        <v>0</v>
-      </c>
-      <c r="S418">
-        <v>0</v>
-      </c>
-      <c r="T418">
-        <v>0</v>
-      </c>
-      <c r="U418">
+      <c r="M419">
+        <v>5</v>
+      </c>
+      <c r="N419">
+        <v>1</v>
+      </c>
+      <c r="O419">
+        <v>3</v>
+      </c>
+      <c r="P419">
+        <v>1</v>
+      </c>
+      <c r="Q419">
+        <v>0</v>
+      </c>
+      <c r="R419">
+        <v>0</v>
+      </c>
+      <c r="S419">
+        <v>0</v>
+      </c>
+      <c r="T419">
+        <v>0</v>
+      </c>
+      <c r="U419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>44980</v>
+      </c>
+      <c r="C420">
+        <v>4</v>
+      </c>
+      <c r="M420">
+        <v>5</v>
+      </c>
+      <c r="N420">
+        <v>1</v>
+      </c>
+      <c r="O420">
+        <v>3</v>
+      </c>
+      <c r="P420">
+        <v>0</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420">
+        <v>0</v>
+      </c>
+      <c r="S420">
+        <v>0</v>
+      </c>
+      <c r="T420">
+        <v>0</v>
+      </c>
+      <c r="U420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>44981</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>4</v>
+      </c>
+      <c r="N421">
+        <v>1</v>
+      </c>
+      <c r="O421">
+        <v>2</v>
+      </c>
+      <c r="P421">
+        <v>0</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+      <c r="R421">
+        <v>0</v>
+      </c>
+      <c r="S421">
+        <v>0</v>
+      </c>
+      <c r="T421">
+        <v>0</v>
+      </c>
+      <c r="U421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>44982</v>
+      </c>
+      <c r="C422">
+        <v>3</v>
+      </c>
+      <c r="M422">
+        <v>4</v>
+      </c>
+      <c r="N422">
+        <v>1</v>
+      </c>
+      <c r="O422">
+        <v>2</v>
+      </c>
+      <c r="P422">
+        <v>0</v>
+      </c>
+      <c r="Q422">
+        <v>0</v>
+      </c>
+      <c r="R422">
+        <v>0</v>
+      </c>
+      <c r="S422">
+        <v>0</v>
+      </c>
+      <c r="T422">
+        <v>0</v>
+      </c>
+      <c r="U422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>44983</v>
+      </c>
+      <c r="C423">
+        <v>5</v>
+      </c>
+      <c r="M423">
+        <v>4</v>
+      </c>
+      <c r="N423">
+        <v>0</v>
+      </c>
+      <c r="O423">
+        <v>3</v>
+      </c>
+      <c r="P423">
+        <v>0</v>
+      </c>
+      <c r="Q423">
+        <v>0</v>
+      </c>
+      <c r="R423">
+        <v>1</v>
+      </c>
+      <c r="S423">
+        <v>0</v>
+      </c>
+      <c r="T423">
+        <v>0</v>
+      </c>
+      <c r="U423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>44984</v>
+      </c>
+      <c r="C424">
+        <v>1</v>
+      </c>
+      <c r="M424">
+        <v>3</v>
+      </c>
+      <c r="N424">
+        <v>0</v>
+      </c>
+      <c r="O424">
+        <v>2</v>
+      </c>
+      <c r="P424">
+        <v>0</v>
+      </c>
+      <c r="Q424">
+        <v>0</v>
+      </c>
+      <c r="R424">
+        <v>1</v>
+      </c>
+      <c r="S424">
+        <v>0</v>
+      </c>
+      <c r="T424">
+        <v>0</v>
+      </c>
+      <c r="U424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>44985</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="M425">
+        <v>2</v>
+      </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+      <c r="O425">
+        <v>1</v>
+      </c>
+      <c r="P425">
+        <v>0</v>
+      </c>
+      <c r="Q425">
+        <v>0</v>
+      </c>
+      <c r="R425">
+        <v>1</v>
+      </c>
+      <c r="S425">
+        <v>0</v>
+      </c>
+      <c r="T425">
+        <v>0</v>
+      </c>
+      <c r="U425">
         <v>0</v>
       </c>
     </row>
@@ -40628,11 +41304,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A72D8D-3EE6-4857-9185-E03B84D7005C}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -40677,16 +41351,16 @@
         <v>50</v>
       </c>
       <c r="J1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>128</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>129</v>
-      </c>
-      <c r="M1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -41151,7 +41825,7 @@
         <v>398</v>
       </c>
       <c r="E13">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F13">
         <v>460</v>
@@ -41172,7 +41846,7 @@
         <v>547</v>
       </c>
       <c r="L13">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="M13">
         <v>4016</v>
@@ -41769,7 +42443,7 @@
         <v>975</v>
       </c>
       <c r="F28">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G28">
         <v>179</v>
@@ -41790,7 +42464,7 @@
         <v>2663</v>
       </c>
       <c r="M28">
-        <v>7111</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -41842,7 +42516,7 @@
         <v>2450</v>
       </c>
       <c r="C30">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="D30">
         <v>946</v>
@@ -41872,7 +42546,7 @@
         <v>1813</v>
       </c>
       <c r="M30">
-        <v>4971</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -42006,13 +42680,13 @@
         <v>2157</v>
       </c>
       <c r="C34">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="D34">
         <v>719</v>
       </c>
       <c r="E34">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F34">
         <v>627</v>
@@ -42036,7 +42710,7 @@
         <v>1806</v>
       </c>
       <c r="M34">
-        <v>4558</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -42132,7 +42806,7 @@
         <v>4972</v>
       </c>
       <c r="D37">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="E37">
         <v>1900</v>
@@ -42159,7 +42833,7 @@
         <v>3809</v>
       </c>
       <c r="M37">
-        <v>9718</v>
+        <v>9719</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -42167,10 +42841,10 @@
         <v>44878</v>
       </c>
       <c r="B38">
-        <v>7421</v>
+        <v>7422</v>
       </c>
       <c r="C38">
-        <v>7533</v>
+        <v>7537</v>
       </c>
       <c r="D38">
         <v>2925</v>
@@ -42179,10 +42853,10 @@
         <v>2437</v>
       </c>
       <c r="F38">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="G38">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H38">
         <v>356</v>
@@ -42194,10 +42868,10 @@
         <v>193</v>
       </c>
       <c r="K38">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="L38">
-        <v>6154</v>
+        <v>6156</v>
       </c>
       <c r="M38">
         <v>15220</v>
@@ -42208,13 +42882,13 @@
         <v>44885</v>
       </c>
       <c r="B39">
-        <v>8500</v>
+        <v>8501</v>
       </c>
       <c r="C39">
-        <v>8452</v>
+        <v>8457</v>
       </c>
       <c r="D39">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="E39">
         <v>2954</v>
@@ -42238,10 +42912,10 @@
         <v>1311</v>
       </c>
       <c r="L39">
-        <v>7115</v>
+        <v>7117</v>
       </c>
       <c r="M39">
-        <v>17060</v>
+        <v>17070</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -42249,16 +42923,16 @@
         <v>44892</v>
       </c>
       <c r="B40">
-        <v>10200</v>
+        <v>10210</v>
       </c>
       <c r="C40">
         <v>10190</v>
       </c>
       <c r="D40">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="E40">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="F40">
         <v>2912</v>
@@ -42279,10 +42953,10 @@
         <v>1465</v>
       </c>
       <c r="L40">
-        <v>8292</v>
+        <v>8295</v>
       </c>
       <c r="M40">
-        <v>20550</v>
+        <v>20560</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -42293,13 +42967,13 @@
         <v>12540</v>
       </c>
       <c r="C41">
-        <v>12610</v>
+        <v>12620</v>
       </c>
       <c r="D41">
-        <v>4866</v>
+        <v>4867</v>
       </c>
       <c r="E41">
-        <v>3891</v>
+        <v>3893</v>
       </c>
       <c r="F41">
         <v>3307</v>
@@ -42323,7 +42997,7 @@
         <v>10280</v>
       </c>
       <c r="M41">
-        <v>24810</v>
+        <v>24820</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -42340,7 +43014,7 @@
         <v>6010</v>
       </c>
       <c r="E42">
-        <v>3686</v>
+        <v>3687</v>
       </c>
       <c r="F42">
         <v>3286</v>
@@ -42375,13 +43049,13 @@
         <v>14510</v>
       </c>
       <c r="C43">
-        <v>13260</v>
+        <v>13270</v>
       </c>
       <c r="D43">
-        <v>6794</v>
+        <v>6796</v>
       </c>
       <c r="E43">
-        <v>4034</v>
+        <v>4036</v>
       </c>
       <c r="F43">
         <v>3780</v>
@@ -42402,10 +43076,10 @@
         <v>2220</v>
       </c>
       <c r="L43">
-        <v>11390</v>
+        <v>11400</v>
       </c>
       <c r="M43">
-        <v>29060</v>
+        <v>29070</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -42413,19 +43087,19 @@
         <v>44920</v>
       </c>
       <c r="B44">
-        <v>16400</v>
+        <v>16410</v>
       </c>
       <c r="C44">
-        <v>14070</v>
+        <v>14080</v>
       </c>
       <c r="D44">
-        <v>6920</v>
+        <v>6928</v>
       </c>
       <c r="E44">
-        <v>4285</v>
+        <v>4290</v>
       </c>
       <c r="F44">
-        <v>4203</v>
+        <v>4209</v>
       </c>
       <c r="G44">
         <v>1444</v>
@@ -42446,7 +43120,7 @@
         <v>11910</v>
       </c>
       <c r="M44">
-        <v>32540</v>
+        <v>32570</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -42457,19 +43131,19 @@
         <v>10420</v>
       </c>
       <c r="C45">
-        <v>8792</v>
+        <v>8801</v>
       </c>
       <c r="D45">
-        <v>5346</v>
+        <v>5351</v>
       </c>
       <c r="E45">
-        <v>2856</v>
+        <v>2861</v>
       </c>
       <c r="F45">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="G45">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="H45">
         <v>653</v>
@@ -42481,13 +43155,13 @@
         <v>239</v>
       </c>
       <c r="K45">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="L45">
-        <v>7431</v>
+        <v>7434</v>
       </c>
       <c r="M45">
-        <v>22320</v>
+        <v>22340</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -42495,19 +43169,19 @@
         <v>44934</v>
       </c>
       <c r="B46">
-        <v>6621</v>
+        <v>6624</v>
       </c>
       <c r="C46">
-        <v>5229</v>
+        <v>5236</v>
       </c>
       <c r="D46">
-        <v>3897</v>
+        <v>3901</v>
       </c>
       <c r="E46">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F46">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="G46">
         <v>585</v>
@@ -42525,10 +43199,10 @@
         <v>862</v>
       </c>
       <c r="L46">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="M46">
-        <v>13310</v>
+        <v>13320</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -42536,22 +43210,22 @@
         <v>44941</v>
       </c>
       <c r="B47">
-        <v>4774</v>
+        <v>4771</v>
       </c>
       <c r="C47">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="D47">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="E47">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="F47">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="G47">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H47">
         <v>228</v>
@@ -42566,10 +43240,10 @@
         <v>705</v>
       </c>
       <c r="L47">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="M47">
-        <v>9036</v>
+        <v>9047</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -42580,22 +43254,22 @@
         <v>3262</v>
       </c>
       <c r="C48">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="D48">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="E48">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F48">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G48">
         <v>213</v>
       </c>
       <c r="H48">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I48">
         <v>36</v>
@@ -42607,10 +43281,10 @@
         <v>452</v>
       </c>
       <c r="L48">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="M48">
-        <v>6128</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -42618,19 +43292,19 @@
         <v>44955</v>
       </c>
       <c r="B49">
-        <v>2974</v>
+        <v>2981</v>
       </c>
       <c r="C49">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D49">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="E49">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="F49">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G49">
         <v>136</v>
@@ -42645,13 +43319,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="M49">
-        <v>4790</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -42659,22 +43333,22 @@
         <v>44962</v>
       </c>
       <c r="B50">
-        <v>2551</v>
+        <v>2558</v>
       </c>
       <c r="C50">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="D50">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="E50">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F50">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G50">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H50">
         <v>96</v>
@@ -42683,16 +43357,16 @@
         <v>20</v>
       </c>
       <c r="J50">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L50">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="M50">
-        <v>4056</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -42700,22 +43374,22 @@
         <v>44969</v>
       </c>
       <c r="B51">
-        <v>2155</v>
+        <v>2167</v>
       </c>
       <c r="C51">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="D51">
-        <v>1377</v>
+        <v>1384</v>
       </c>
       <c r="E51">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="F51">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="G51">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -42727,13 +43401,13 @@
         <v>54</v>
       </c>
       <c r="K51">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L51">
-        <v>1615</v>
+        <v>1622</v>
       </c>
       <c r="M51">
-        <v>3774</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -42741,40 +43415,81 @@
         <v>44976</v>
       </c>
       <c r="B52">
-        <v>2114</v>
+        <v>2148</v>
       </c>
       <c r="C52">
-        <v>1618</v>
+        <v>1638</v>
       </c>
       <c r="D52">
-        <v>1385</v>
+        <v>1426</v>
       </c>
       <c r="E52">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="F52">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="G52">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H52">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I52">
         <v>9</v>
       </c>
       <c r="J52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L52">
-        <v>1632</v>
+        <v>1649</v>
       </c>
       <c r="M52">
-        <v>3787</v>
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44983</v>
+      </c>
+      <c r="B53">
+        <v>2407</v>
+      </c>
+      <c r="C53">
+        <v>1738</v>
+      </c>
+      <c r="D53">
+        <v>1587</v>
+      </c>
+      <c r="E53">
+        <v>564</v>
+      </c>
+      <c r="F53">
+        <v>583</v>
+      </c>
+      <c r="G53">
+        <v>173</v>
+      </c>
+      <c r="H53">
+        <v>120</v>
+      </c>
+      <c r="I53">
+        <v>13</v>
+      </c>
+      <c r="J53">
+        <v>78</v>
+      </c>
+      <c r="K53">
+        <v>364</v>
+      </c>
+      <c r="L53">
+        <v>1813</v>
+      </c>
+      <c r="M53">
+        <v>4262</v>
       </c>
     </row>
   </sheetData>
@@ -42785,11 +43500,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08781521-3010-4BCB-98A6-EB74D8D5957D}">
-  <dimension ref="A1:AD419"/>
+  <dimension ref="A1:AD426"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42885,37 +43598,37 @@
         <v>60</v>
       </c>
       <c r="T1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U1" t="s">
         <v>118</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>119</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>120</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>121</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" t="s">
-        <v>126</v>
-      </c>
       <c r="AC1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" t="s">
         <v>131</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -80680,11 +81393,655 @@
       <c r="A419" s="2">
         <v>44979</v>
       </c>
+      <c r="B419">
+        <v>1324</v>
+      </c>
+      <c r="C419">
+        <v>831</v>
+      </c>
+      <c r="D419">
+        <v>102</v>
+      </c>
+      <c r="E419">
+        <v>214</v>
+      </c>
+      <c r="F419">
+        <v>90</v>
+      </c>
+      <c r="G419">
+        <v>44</v>
+      </c>
+      <c r="H419">
+        <v>28</v>
+      </c>
+      <c r="I419">
+        <v>8</v>
+      </c>
+      <c r="J419">
+        <v>7</v>
+      </c>
+      <c r="K419">
+        <v>40</v>
+      </c>
+      <c r="L419">
+        <v>23</v>
+      </c>
+      <c r="M419">
+        <v>5</v>
+      </c>
+      <c r="N419">
+        <v>7</v>
+      </c>
+      <c r="O419">
+        <v>2</v>
+      </c>
+      <c r="P419">
+        <v>3</v>
+      </c>
+      <c r="Q419">
+        <v>0</v>
+      </c>
+      <c r="R419">
+        <v>0</v>
+      </c>
+      <c r="S419">
+        <v>1</v>
+      </c>
+      <c r="T419">
+        <v>2616</v>
+      </c>
+      <c r="U419">
+        <v>942</v>
+      </c>
+      <c r="V419">
+        <v>436</v>
+      </c>
+      <c r="W419">
+        <v>504</v>
+      </c>
+      <c r="X419">
+        <v>324</v>
+      </c>
+      <c r="Y419">
+        <v>255</v>
+      </c>
+      <c r="Z419">
+        <v>67</v>
+      </c>
+      <c r="AA419">
+        <v>73</v>
+      </c>
+      <c r="AB419">
+        <v>14</v>
+      </c>
       <c r="AC419">
         <v>2.2000000000000002</v>
       </c>
       <c r="AD419">
         <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B420">
+        <v>1325</v>
+      </c>
+      <c r="C420">
+        <v>826</v>
+      </c>
+      <c r="D420">
+        <v>101</v>
+      </c>
+      <c r="E420">
+        <v>223</v>
+      </c>
+      <c r="F420">
+        <v>87</v>
+      </c>
+      <c r="G420">
+        <v>45</v>
+      </c>
+      <c r="H420">
+        <v>29</v>
+      </c>
+      <c r="I420">
+        <v>8</v>
+      </c>
+      <c r="J420">
+        <v>7</v>
+      </c>
+      <c r="K420">
+        <v>39</v>
+      </c>
+      <c r="L420">
+        <v>22</v>
+      </c>
+      <c r="M420">
+        <v>5</v>
+      </c>
+      <c r="N420">
+        <v>7</v>
+      </c>
+      <c r="O420">
+        <v>2</v>
+      </c>
+      <c r="P420">
+        <v>3</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420">
+        <v>0</v>
+      </c>
+      <c r="S420">
+        <v>1</v>
+      </c>
+      <c r="T420">
+        <v>2627</v>
+      </c>
+      <c r="U420">
+        <v>936</v>
+      </c>
+      <c r="V420">
+        <v>436</v>
+      </c>
+      <c r="W420">
+        <v>515</v>
+      </c>
+      <c r="X420">
+        <v>325</v>
+      </c>
+      <c r="Y420">
+        <v>255</v>
+      </c>
+      <c r="Z420">
+        <v>70</v>
+      </c>
+      <c r="AA420">
+        <v>75</v>
+      </c>
+      <c r="AB420">
+        <v>15</v>
+      </c>
+      <c r="AC420">
+        <v>3.3</v>
+      </c>
+      <c r="AD420">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B421">
+        <v>1314</v>
+      </c>
+      <c r="C421">
+        <v>819</v>
+      </c>
+      <c r="D421">
+        <v>99</v>
+      </c>
+      <c r="E421">
+        <v>223</v>
+      </c>
+      <c r="F421">
+        <v>84</v>
+      </c>
+      <c r="G421">
+        <v>45</v>
+      </c>
+      <c r="H421">
+        <v>30</v>
+      </c>
+      <c r="I421">
+        <v>8</v>
+      </c>
+      <c r="J421">
+        <v>7</v>
+      </c>
+      <c r="K421">
+        <v>37</v>
+      </c>
+      <c r="L421">
+        <v>20</v>
+      </c>
+      <c r="M421">
+        <v>5</v>
+      </c>
+      <c r="N421">
+        <v>7</v>
+      </c>
+      <c r="O421">
+        <v>2</v>
+      </c>
+      <c r="P421">
+        <v>2</v>
+      </c>
+      <c r="Q421">
+        <v>1</v>
+      </c>
+      <c r="R421">
+        <v>0</v>
+      </c>
+      <c r="S421">
+        <v>0</v>
+      </c>
+      <c r="T421">
+        <v>2629</v>
+      </c>
+      <c r="U421">
+        <v>961</v>
+      </c>
+      <c r="V421">
+        <v>411</v>
+      </c>
+      <c r="W421">
+        <v>528</v>
+      </c>
+      <c r="X421">
+        <v>322</v>
+      </c>
+      <c r="Y421">
+        <v>247</v>
+      </c>
+      <c r="Z421">
+        <v>76</v>
+      </c>
+      <c r="AA421">
+        <v>69</v>
+      </c>
+      <c r="AB421">
+        <v>15</v>
+      </c>
+      <c r="AC421">
+        <v>2.4</v>
+      </c>
+      <c r="AD421">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B422">
+        <v>1314</v>
+      </c>
+      <c r="C422">
+        <v>819</v>
+      </c>
+      <c r="D422">
+        <v>100</v>
+      </c>
+      <c r="E422">
+        <v>223</v>
+      </c>
+      <c r="F422">
+        <v>81</v>
+      </c>
+      <c r="G422">
+        <v>45</v>
+      </c>
+      <c r="H422">
+        <v>31</v>
+      </c>
+      <c r="I422">
+        <v>8</v>
+      </c>
+      <c r="J422">
+        <v>7</v>
+      </c>
+      <c r="K422">
+        <v>37</v>
+      </c>
+      <c r="L422">
+        <v>20</v>
+      </c>
+      <c r="M422">
+        <v>5</v>
+      </c>
+      <c r="N422">
+        <v>7</v>
+      </c>
+      <c r="O422">
+        <v>2</v>
+      </c>
+      <c r="P422">
+        <v>2</v>
+      </c>
+      <c r="Q422">
+        <v>1</v>
+      </c>
+      <c r="R422">
+        <v>0</v>
+      </c>
+      <c r="S422">
+        <v>0</v>
+      </c>
+      <c r="T422">
+        <v>2644</v>
+      </c>
+      <c r="U422">
+        <v>978</v>
+      </c>
+      <c r="V422">
+        <v>411</v>
+      </c>
+      <c r="W422">
+        <v>530</v>
+      </c>
+      <c r="X422">
+        <v>323</v>
+      </c>
+      <c r="Y422">
+        <v>241</v>
+      </c>
+      <c r="Z422">
+        <v>78</v>
+      </c>
+      <c r="AA422">
+        <v>69</v>
+      </c>
+      <c r="AB422">
+        <v>15</v>
+      </c>
+      <c r="AC422">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD422">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>44983</v>
+      </c>
+      <c r="B423">
+        <v>1335</v>
+      </c>
+      <c r="C423">
+        <v>819</v>
+      </c>
+      <c r="D423">
+        <v>101</v>
+      </c>
+      <c r="E423">
+        <v>243</v>
+      </c>
+      <c r="F423">
+        <v>79</v>
+      </c>
+      <c r="G423">
+        <v>44</v>
+      </c>
+      <c r="H423">
+        <v>33</v>
+      </c>
+      <c r="I423">
+        <v>9</v>
+      </c>
+      <c r="J423">
+        <v>7</v>
+      </c>
+      <c r="K423">
+        <v>37</v>
+      </c>
+      <c r="L423">
+        <v>20</v>
+      </c>
+      <c r="M423">
+        <v>5</v>
+      </c>
+      <c r="N423">
+        <v>7</v>
+      </c>
+      <c r="O423">
+        <v>2</v>
+      </c>
+      <c r="P423">
+        <v>2</v>
+      </c>
+      <c r="Q423">
+        <v>1</v>
+      </c>
+      <c r="R423">
+        <v>0</v>
+      </c>
+      <c r="S423">
+        <v>0</v>
+      </c>
+      <c r="T423">
+        <v>2652</v>
+      </c>
+      <c r="U423">
+        <v>995</v>
+      </c>
+      <c r="V423">
+        <v>406</v>
+      </c>
+      <c r="W423">
+        <v>527</v>
+      </c>
+      <c r="X423">
+        <v>316</v>
+      </c>
+      <c r="Y423">
+        <v>244</v>
+      </c>
+      <c r="Z423">
+        <v>81</v>
+      </c>
+      <c r="AA423">
+        <v>69</v>
+      </c>
+      <c r="AB423">
+        <v>14</v>
+      </c>
+      <c r="AC423">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD423">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B424">
+        <v>1353</v>
+      </c>
+      <c r="C424">
+        <v>817</v>
+      </c>
+      <c r="D424">
+        <v>101</v>
+      </c>
+      <c r="E424">
+        <v>258</v>
+      </c>
+      <c r="F424">
+        <v>76</v>
+      </c>
+      <c r="G424">
+        <v>45</v>
+      </c>
+      <c r="H424">
+        <v>37</v>
+      </c>
+      <c r="I424">
+        <v>11</v>
+      </c>
+      <c r="J424">
+        <v>7</v>
+      </c>
+      <c r="K424">
+        <v>38</v>
+      </c>
+      <c r="L424">
+        <v>20</v>
+      </c>
+      <c r="M424">
+        <v>4</v>
+      </c>
+      <c r="N424">
+        <v>7</v>
+      </c>
+      <c r="O424">
+        <v>2</v>
+      </c>
+      <c r="P424">
+        <v>3</v>
+      </c>
+      <c r="Q424">
+        <v>1</v>
+      </c>
+      <c r="R424">
+        <v>0</v>
+      </c>
+      <c r="S424">
+        <v>1</v>
+      </c>
+      <c r="T424">
+        <v>2695</v>
+      </c>
+      <c r="U424">
+        <v>1013</v>
+      </c>
+      <c r="V424">
+        <v>422</v>
+      </c>
+      <c r="W424">
+        <v>526</v>
+      </c>
+      <c r="X424">
+        <v>321</v>
+      </c>
+      <c r="Y424">
+        <v>247</v>
+      </c>
+      <c r="Z424">
+        <v>83</v>
+      </c>
+      <c r="AA424">
+        <v>70</v>
+      </c>
+      <c r="AB424">
+        <v>14</v>
+      </c>
+      <c r="AC424">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD424">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B425">
+        <v>1363</v>
+      </c>
+      <c r="C425">
+        <v>819</v>
+      </c>
+      <c r="D425">
+        <v>102</v>
+      </c>
+      <c r="E425">
+        <v>267</v>
+      </c>
+      <c r="F425">
+        <v>74</v>
+      </c>
+      <c r="G425">
+        <v>43</v>
+      </c>
+      <c r="H425">
+        <v>41</v>
+      </c>
+      <c r="I425">
+        <v>11</v>
+      </c>
+      <c r="J425">
+        <v>6</v>
+      </c>
+      <c r="K425">
+        <v>36</v>
+      </c>
+      <c r="L425">
+        <v>20</v>
+      </c>
+      <c r="M425">
+        <v>4</v>
+      </c>
+      <c r="N425">
+        <v>7</v>
+      </c>
+      <c r="O425">
+        <v>2</v>
+      </c>
+      <c r="P425">
+        <v>3</v>
+      </c>
+      <c r="Q425">
+        <v>1</v>
+      </c>
+      <c r="R425">
+        <v>0</v>
+      </c>
+      <c r="S425">
+        <v>1</v>
+      </c>
+      <c r="T425">
+        <v>2646</v>
+      </c>
+      <c r="U425">
+        <v>956</v>
+      </c>
+      <c r="V425">
+        <v>426</v>
+      </c>
+      <c r="W425">
+        <v>528</v>
+      </c>
+      <c r="X425">
+        <v>327</v>
+      </c>
+      <c r="Y425">
+        <v>239</v>
+      </c>
+      <c r="Z425">
+        <v>83</v>
+      </c>
+      <c r="AA425">
+        <v>73</v>
+      </c>
+      <c r="AB425">
+        <v>13</v>
+      </c>
+      <c r="AC425">
+        <v>2.1</v>
+      </c>
+      <c r="AD425">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="426" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>44986</v>
+      </c>
+      <c r="AC426">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD426">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -80695,7 +82052,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2C6A6A-BFF0-4965-8EE4-28937118F197}">
-  <dimension ref="A1:Z419"/>
+  <dimension ref="A1:Z426"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -80734,31 +82091,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
         <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" t="s">
-        <v>114</v>
       </c>
       <c r="K1" t="s">
         <v>27</v>
@@ -81771,7 +83128,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>445</v>
@@ -81851,7 +83208,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15">
         <v>445</v>
@@ -81931,7 +83288,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>445</v>
@@ -82011,7 +83368,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17">
         <v>1011</v>
@@ -82091,7 +83448,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>1012</v>
@@ -82171,7 +83528,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19">
         <v>1012</v>
@@ -82251,7 +83608,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <v>1187</v>
@@ -82331,7 +83688,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B21">
         <v>1231</v>
@@ -82411,7 +83768,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22">
         <v>1231</v>
@@ -82491,7 +83848,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <v>1231</v>
@@ -82571,7 +83928,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24">
         <v>1271</v>
@@ -82651,7 +84008,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25">
         <v>1284</v>
@@ -82731,7 +84088,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26">
         <v>1284</v>
@@ -82811,7 +84168,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B27">
         <v>1203</v>
@@ -82891,7 +84248,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B28">
         <v>1205</v>
@@ -82971,7 +84328,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B29">
         <v>1205</v>
@@ -83051,7 +84408,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30">
         <v>1205</v>
@@ -83131,7 +84488,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31">
         <v>1205</v>
@@ -83211,7 +84568,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32">
         <v>1173</v>
@@ -84251,7 +85608,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45">
         <v>849</v>
@@ -84331,7 +85688,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46">
         <v>812</v>
@@ -84411,7 +85768,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47">
         <v>697</v>
@@ -84491,7 +85848,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B48">
         <v>638</v>
@@ -84571,7 +85928,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B49">
         <v>569</v>
@@ -84651,7 +86008,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B50">
         <v>567</v>
@@ -84731,7 +86088,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51">
         <v>570</v>
@@ -84811,7 +86168,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52">
         <v>445</v>
@@ -84891,7 +86248,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53">
         <v>375</v>
@@ -84971,7 +86328,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54">
         <v>287</v>
@@ -85051,7 +86408,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55">
         <v>250</v>
@@ -85131,7 +86488,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56">
         <v>227</v>
@@ -85211,7 +86568,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57">
         <v>210</v>
@@ -85291,7 +86648,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58">
         <v>211</v>
@@ -85371,7 +86728,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59">
         <v>211</v>
@@ -85451,7 +86808,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B60">
         <v>212</v>
@@ -86491,7 +87848,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B73">
         <v>323</v>
@@ -86571,7 +87928,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74">
         <v>342</v>
@@ -86651,7 +88008,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75">
         <v>363</v>
@@ -86731,7 +88088,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B76">
         <v>381</v>
@@ -86811,7 +88168,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B77">
         <v>409</v>
@@ -86891,7 +88248,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B78">
         <v>426</v>
@@ -86971,7 +88328,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B79">
         <v>442</v>
@@ -87051,7 +88408,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B80">
         <v>447</v>
@@ -87131,7 +88488,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B81">
         <v>497</v>
@@ -87211,7 +88568,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B82">
         <v>511</v>
@@ -87291,7 +88648,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B83">
         <v>519</v>
@@ -87371,7 +88728,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84">
         <v>555</v>
@@ -87451,7 +88808,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B85">
         <v>583</v>
@@ -87531,7 +88888,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B86">
         <v>577</v>
@@ -87611,7 +88968,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B87">
         <v>573</v>
@@ -87691,7 +89048,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B88">
         <v>611</v>
@@ -87771,7 +89128,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B89">
         <v>646</v>
@@ -87851,7 +89208,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B90">
         <v>667</v>
@@ -87931,7 +89288,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B91">
         <v>689</v>
@@ -88971,7 +90328,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B104">
         <v>793</v>
@@ -89051,7 +90408,7 @@
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B105">
         <v>800</v>
@@ -89131,7 +90488,7 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B106">
         <v>795</v>
@@ -89211,7 +90568,7 @@
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B107">
         <v>785</v>
@@ -89291,7 +90648,7 @@
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B108">
         <v>781</v>
@@ -89371,7 +90728,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B109">
         <v>780</v>
@@ -89451,7 +90808,7 @@
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B110">
         <v>807</v>
@@ -89531,7 +90888,7 @@
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B111">
         <v>812</v>
@@ -89611,7 +90968,7 @@
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B112">
         <v>811</v>
@@ -89691,7 +91048,7 @@
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B113">
         <v>787</v>
@@ -89771,7 +91128,7 @@
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B114">
         <v>785</v>
@@ -89851,7 +91208,7 @@
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B115">
         <v>770</v>
@@ -89931,7 +91288,7 @@
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B116">
         <v>773</v>
@@ -90011,7 +91368,7 @@
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B117">
         <v>799</v>
@@ -90091,7 +91448,7 @@
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B118">
         <v>798</v>
@@ -90171,7 +91528,7 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B119">
         <v>785</v>
@@ -90251,7 +91608,7 @@
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B120">
         <v>779</v>
@@ -90331,7 +91688,7 @@
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B121">
         <v>773</v>
@@ -91371,7 +92728,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B134">
         <v>791</v>
@@ -91451,7 +92808,7 @@
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B135">
         <v>792</v>
@@ -91531,7 +92888,7 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B136">
         <v>792</v>
@@ -91611,7 +92968,7 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B137">
         <v>827</v>
@@ -91691,7 +93048,7 @@
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B138">
         <v>830</v>
@@ -91771,7 +93128,7 @@
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B139">
         <v>812</v>
@@ -91851,7 +93208,7 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B140">
         <v>807</v>
@@ -91931,7 +93288,7 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B141">
         <v>793</v>
@@ -92011,7 +93368,7 @@
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B142">
         <v>778</v>
@@ -92091,7 +93448,7 @@
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B143">
         <v>759</v>
@@ -92171,7 +93528,7 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B144">
         <v>758</v>
@@ -92251,7 +93608,7 @@
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B145">
         <v>752</v>
@@ -92331,7 +93688,7 @@
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B146">
         <v>744</v>
@@ -92411,7 +93768,7 @@
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B147">
         <v>741</v>
@@ -92491,7 +93848,7 @@
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B148">
         <v>740</v>
@@ -92571,7 +93928,7 @@
     </row>
     <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149">
         <v>731</v>
@@ -92651,7 +94008,7 @@
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B150">
         <v>722</v>
@@ -92731,7 +94088,7 @@
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B151">
         <v>734</v>
@@ -92811,7 +94168,7 @@
     </row>
     <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B152">
         <v>704</v>
@@ -93851,7 +95208,7 @@
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B165">
         <v>598</v>
@@ -93931,7 +95288,7 @@
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B166">
         <v>601</v>
@@ -94011,7 +95368,7 @@
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B167">
         <v>607</v>
@@ -94091,7 +95448,7 @@
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B168">
         <v>610</v>
@@ -94171,7 +95528,7 @@
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B169">
         <v>619</v>
@@ -94251,7 +95608,7 @@
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B170">
         <v>611</v>
@@ -94331,7 +95688,7 @@
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B171">
         <v>599</v>
@@ -94411,7 +95768,7 @@
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B172">
         <v>608</v>
@@ -94491,7 +95848,7 @@
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B173">
         <v>619</v>
@@ -94571,7 +95928,7 @@
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B174">
         <v>608</v>
@@ -94651,7 +96008,7 @@
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B175">
         <v>597</v>
@@ -94731,7 +96088,7 @@
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B176">
         <v>602</v>
@@ -94811,7 +96168,7 @@
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B177">
         <v>584</v>
@@ -94891,7 +96248,7 @@
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B178">
         <v>573</v>
@@ -94971,7 +96328,7 @@
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B179">
         <v>601</v>
@@ -95051,7 +96408,7 @@
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B180">
         <v>615</v>
@@ -95131,7 +96488,7 @@
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B181">
         <v>622</v>
@@ -95211,7 +96568,7 @@
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B182">
         <v>626</v>
@@ -96251,7 +97608,7 @@
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B195">
         <v>820</v>
@@ -96331,7 +97688,7 @@
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B196">
         <v>840</v>
@@ -96411,7 +97768,7 @@
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B197">
         <v>876</v>
@@ -96491,7 +97848,7 @@
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B198">
         <v>881</v>
@@ -96571,7 +97928,7 @@
     </row>
     <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B199">
         <v>887</v>
@@ -96651,7 +98008,7 @@
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B200">
         <v>919</v>
@@ -96731,7 +98088,7 @@
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B201">
         <v>952</v>
@@ -96811,7 +98168,7 @@
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B202">
         <v>984</v>
@@ -96891,7 +98248,7 @@
     </row>
     <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B203">
         <v>1000</v>
@@ -96971,7 +98328,7 @@
     </row>
     <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B204">
         <v>998</v>
@@ -97051,7 +98408,7 @@
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B205">
         <v>980</v>
@@ -97131,7 +98488,7 @@
     </row>
     <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B206">
         <v>971</v>
@@ -97211,7 +98568,7 @@
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B207">
         <v>1028</v>
@@ -97291,7 +98648,7 @@
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B208">
         <v>1033</v>
@@ -97371,7 +98728,7 @@
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B209">
         <v>1044</v>
@@ -97451,7 +98808,7 @@
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B210">
         <v>1031</v>
@@ -97531,7 +98888,7 @@
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B211">
         <v>1016</v>
@@ -97611,7 +98968,7 @@
     </row>
     <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B212">
         <v>993</v>
@@ -97691,7 +99048,7 @@
     </row>
     <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B213">
         <v>973</v>
@@ -98731,7 +100088,7 @@
     </row>
     <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B226">
         <v>682</v>
@@ -98811,7 +100168,7 @@
     </row>
     <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B227">
         <v>655</v>
@@ -98891,7 +100248,7 @@
     </row>
     <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B228">
         <v>621</v>
@@ -98971,7 +100328,7 @@
     </row>
     <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B229">
         <v>612</v>
@@ -99051,7 +100408,7 @@
     </row>
     <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B230">
         <v>585</v>
@@ -99131,7 +100488,7 @@
     </row>
     <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B231">
         <v>568</v>
@@ -99211,7 +100568,7 @@
     </row>
     <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B232">
         <v>552</v>
@@ -99291,7 +100648,7 @@
     </row>
     <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B233">
         <v>536</v>
@@ -99371,7 +100728,7 @@
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B234">
         <v>516</v>
@@ -99451,7 +100808,7 @@
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B235">
         <v>487</v>
@@ -99531,7 +100888,7 @@
     </row>
     <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B236">
         <v>482</v>
@@ -99611,7 +100968,7 @@
     </row>
     <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B237">
         <v>450</v>
@@ -99691,7 +101048,7 @@
     </row>
     <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B238">
         <v>449</v>
@@ -99771,7 +101128,7 @@
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B239">
         <v>437</v>
@@ -99851,7 +101208,7 @@
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B240">
         <v>427</v>
@@ -99931,7 +101288,7 @@
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B241">
         <v>411</v>
@@ -100011,7 +101368,7 @@
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B242">
         <v>409</v>
@@ -100091,7 +101448,7 @@
     </row>
     <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B243">
         <v>393</v>
@@ -100171,7 +101528,7 @@
     </row>
     <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B244">
         <v>380</v>
@@ -101211,7 +102568,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>247</v>
@@ -101291,7 +102648,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>251</v>
@@ -101371,7 +102728,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>239</v>
@@ -101451,7 +102808,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>231</v>
@@ -101531,7 +102888,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>226</v>
@@ -101611,7 +102968,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>219</v>
@@ -101691,7 +103048,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>211</v>
@@ -101771,7 +103128,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>204</v>
@@ -101851,7 +103208,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>200</v>
@@ -101931,7 +103288,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>199</v>
@@ -102011,7 +103368,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>203</v>
@@ -102091,7 +103448,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>198</v>
@@ -102171,7 +103528,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>198</v>
@@ -102251,7 +103608,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>187</v>
@@ -102331,7 +103688,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>176</v>
@@ -102411,7 +103768,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>172</v>
@@ -102491,7 +103848,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>175</v>
@@ -102571,7 +103928,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>173</v>
@@ -103611,7 +104968,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B287">
         <v>169</v>
@@ -103691,7 +105048,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B288">
         <v>166</v>
@@ -103771,7 +105128,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B289">
         <v>167</v>
@@ -103851,7 +105208,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B290">
         <v>168</v>
@@ -103931,7 +105288,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B291">
         <v>171</v>
@@ -104011,7 +105368,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B292">
         <v>174</v>
@@ -104091,7 +105448,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B293">
         <v>178</v>
@@ -104171,7 +105528,7 @@
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B294">
         <v>181</v>
@@ -104251,7 +105608,7 @@
     </row>
     <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B295">
         <v>180</v>
@@ -104331,7 +105688,7 @@
     </row>
     <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B296">
         <v>177</v>
@@ -104411,7 +105768,7 @@
     </row>
     <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B297">
         <v>172</v>
@@ -104491,7 +105848,7 @@
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B298">
         <v>174</v>
@@ -104571,7 +105928,7 @@
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B299">
         <v>175</v>
@@ -104651,7 +106008,7 @@
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B300">
         <v>170</v>
@@ -104731,7 +106088,7 @@
     </row>
     <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B301">
         <v>175</v>
@@ -104811,7 +106168,7 @@
     </row>
     <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B302">
         <v>179</v>
@@ -104891,7 +106248,7 @@
     </row>
     <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B303">
         <v>175</v>
@@ -104971,7 +106328,7 @@
     </row>
     <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B304">
         <v>168</v>
@@ -105051,7 +106408,7 @@
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B305">
         <v>175</v>
@@ -106091,7 +107448,7 @@
     </row>
     <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318">
         <v>344</v>
@@ -106171,7 +107528,7 @@
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319">
         <v>395</v>
@@ -106251,7 +107608,7 @@
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320">
         <v>427</v>
@@ -106331,7 +107688,7 @@
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321">
         <v>442</v>
@@ -106411,7 +107768,7 @@
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322">
         <v>452</v>
@@ -106491,7 +107848,7 @@
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323">
         <v>473</v>
@@ -106571,7 +107928,7 @@
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324">
         <v>473</v>
@@ -106651,7 +108008,7 @@
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325">
         <v>466</v>
@@ -106731,7 +108088,7 @@
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326">
         <v>494</v>
@@ -106811,7 +108168,7 @@
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327">
         <v>518</v>
@@ -106891,7 +108248,7 @@
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328">
         <v>543</v>
@@ -106971,7 +108328,7 @@
     </row>
     <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329">
         <v>529</v>
@@ -107051,7 +108408,7 @@
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330">
         <v>531</v>
@@ -107131,7 +108488,7 @@
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331">
         <v>521</v>
@@ -107211,7 +108568,7 @@
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332">
         <v>514</v>
@@ -107291,7 +108648,7 @@
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333">
         <v>547</v>
@@ -107371,7 +108728,7 @@
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334">
         <v>567</v>
@@ -107451,7 +108808,7 @@
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335">
         <v>600</v>
@@ -108491,7 +109848,7 @@
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B348">
         <v>717</v>
@@ -108571,7 +109928,7 @@
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B349">
         <v>722</v>
@@ -108651,7 +110008,7 @@
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B350">
         <v>730</v>
@@ -108731,7 +110088,7 @@
     </row>
     <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B351">
         <v>721</v>
@@ -108811,7 +110168,7 @@
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B352">
         <v>723</v>
@@ -108891,7 +110248,7 @@
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B353">
         <v>717</v>
@@ -108971,7 +110328,7 @@
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B354">
         <v>756</v>
@@ -109051,7 +110408,7 @@
     </row>
     <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B355">
         <v>759</v>
@@ -109131,7 +110488,7 @@
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B356">
         <v>777</v>
@@ -109211,7 +110568,7 @@
     </row>
     <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B357">
         <v>786</v>
@@ -109291,7 +110648,7 @@
     </row>
     <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B358">
         <v>800</v>
@@ -109371,7 +110728,7 @@
     </row>
     <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B359">
         <v>789</v>
@@ -109451,7 +110808,7 @@
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B360">
         <v>773</v>
@@ -109531,7 +110888,7 @@
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B361">
         <v>752</v>
@@ -109611,7 +110968,7 @@
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B362">
         <v>731</v>
@@ -109691,7 +111048,7 @@
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B363">
         <v>706</v>
@@ -109771,7 +111128,7 @@
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B364">
         <v>791</v>
@@ -109851,7 +111208,7 @@
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B365">
         <v>804</v>
@@ -109931,7 +111288,7 @@
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B366">
         <v>787</v>
@@ -110971,7 +112328,7 @@
     </row>
     <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B379">
         <v>511</v>
@@ -111051,7 +112408,7 @@
     </row>
     <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B380">
         <v>482</v>
@@ -111131,7 +112488,7 @@
     </row>
     <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B381">
         <v>467</v>
@@ -111211,7 +112568,7 @@
     </row>
     <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B382">
         <v>418</v>
@@ -111291,7 +112648,7 @@
     </row>
     <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B383">
         <v>397</v>
@@ -111371,7 +112728,7 @@
     </row>
     <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B384">
         <v>378</v>
@@ -111451,7 +112808,7 @@
     </row>
     <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B385">
         <v>354</v>
@@ -111531,7 +112888,7 @@
     </row>
     <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B386">
         <v>340</v>
@@ -111611,7 +112968,7 @@
     </row>
     <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B387">
         <v>324</v>
@@ -111691,7 +113048,7 @@
     </row>
     <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B388">
         <v>306</v>
@@ -111771,7 +113128,7 @@
     </row>
     <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B389">
         <v>286</v>
@@ -111851,7 +113208,7 @@
     </row>
     <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B390">
         <v>261</v>
@@ -111931,7 +113288,7 @@
     </row>
     <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B391">
         <v>249</v>
@@ -112011,7 +113368,7 @@
     </row>
     <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B392">
         <v>227</v>
@@ -112091,7 +113448,7 @@
     </row>
     <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B393">
         <v>224</v>
@@ -112171,7 +113528,7 @@
     </row>
     <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B394">
         <v>213</v>
@@ -112251,7 +113608,7 @@
     </row>
     <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B395">
         <v>205</v>
@@ -112331,7 +113688,7 @@
     </row>
     <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B396">
         <v>203</v>
@@ -112411,7 +113768,7 @@
     </row>
     <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B397">
         <v>198</v>
@@ -113451,7 +114808,7 @@
     </row>
     <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B410">
         <v>139</v>
@@ -113531,7 +114888,7 @@
     </row>
     <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B411">
         <v>142</v>
@@ -113611,13 +114968,13 @@
     </row>
     <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B412">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C412">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D412">
         <v>23</v>
@@ -113665,7 +115022,7 @@
         <v>4</v>
       </c>
       <c r="S412">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="T412">
         <v>35</v>
@@ -113691,13 +115048,13 @@
     </row>
     <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B413">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C413">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D413">
         <v>23</v>
@@ -113745,7 +115102,7 @@
         <v>4</v>
       </c>
       <c r="S413">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T413">
         <v>33</v>
@@ -113771,22 +115128,22 @@
     </row>
     <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B414">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C414">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D414">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E414">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F414">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G414">
         <v>16</v>
@@ -113801,16 +115158,16 @@
         <v>1</v>
       </c>
       <c r="K414">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L414">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M414">
         <v>200</v>
       </c>
       <c r="N414">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O414">
         <v>90</v>
@@ -113825,13 +115182,13 @@
         <v>4</v>
       </c>
       <c r="S414">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T414">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U414">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V414">
         <v>13</v>
@@ -113851,22 +115208,22 @@
     </row>
     <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B415">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C415">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D415">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E415">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F415">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G415">
         <v>15</v>
@@ -113881,16 +115238,16 @@
         <v>0</v>
       </c>
       <c r="K415">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L415">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="M415">
         <v>198</v>
       </c>
       <c r="N415">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O415">
         <v>88</v>
@@ -113905,13 +115262,13 @@
         <v>0</v>
       </c>
       <c r="S415">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="T415">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U415">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V415">
         <v>13</v>
@@ -113931,22 +115288,22 @@
     </row>
     <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B416">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C416">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D416">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E416">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F416">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G416">
         <v>14</v>
@@ -113961,16 +115318,16 @@
         <v>0</v>
       </c>
       <c r="K416">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L416">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M416">
         <v>198</v>
       </c>
       <c r="N416">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O416">
         <v>94</v>
@@ -113985,13 +115342,13 @@
         <v>0</v>
       </c>
       <c r="S416">
+        <v>77</v>
+      </c>
+      <c r="T416">
+        <v>25</v>
+      </c>
+      <c r="U416">
         <v>80</v>
-      </c>
-      <c r="T416">
-        <v>27</v>
-      </c>
-      <c r="U416">
-        <v>81</v>
       </c>
       <c r="V416">
         <v>14</v>
@@ -114011,22 +115368,22 @@
     </row>
     <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B417">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C417">
         <v>47</v>
       </c>
       <c r="D417">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E417">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F417">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G417">
         <v>16</v>
@@ -114041,16 +115398,16 @@
         <v>0</v>
       </c>
       <c r="K417">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L417">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M417">
         <v>178</v>
       </c>
       <c r="N417">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O417">
         <v>75</v>
@@ -114065,13 +115422,13 @@
         <v>0</v>
       </c>
       <c r="S417">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T417">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U417">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V417">
         <v>23</v>
@@ -114091,19 +115448,19 @@
     </row>
     <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B418">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C418">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D418">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E418">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F418">
         <v>16</v>
@@ -114121,16 +115478,16 @@
         <v>1</v>
       </c>
       <c r="K418">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L418">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M418">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N418">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O418">
         <v>90</v>
@@ -114145,16 +115502,16 @@
         <v>7</v>
       </c>
       <c r="S418">
+        <v>76</v>
+      </c>
+      <c r="T418">
+        <v>39</v>
+      </c>
+      <c r="U418">
         <v>78</v>
       </c>
-      <c r="T418">
-        <v>41</v>
-      </c>
-      <c r="U418">
-        <v>81</v>
-      </c>
       <c r="V418">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W418">
         <v>38</v>
@@ -114171,22 +115528,22 @@
     </row>
     <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B419">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C419">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D419">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E419">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F419">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G419">
         <v>19</v>
@@ -114201,16 +115558,16 @@
         <v>1</v>
       </c>
       <c r="K419">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="L419">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M419">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N419">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O419">
         <v>96</v>
@@ -114225,16 +115582,16 @@
         <v>8</v>
       </c>
       <c r="S419">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="T419">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U419">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V419">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W419">
         <v>44</v>
@@ -114246,6 +115603,566 @@
         <v>0</v>
       </c>
       <c r="Z419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>382</v>
+      </c>
+      <c r="B420">
+        <v>148</v>
+      </c>
+      <c r="C420">
+        <v>43</v>
+      </c>
+      <c r="D420">
+        <v>31</v>
+      </c>
+      <c r="E420">
+        <v>37</v>
+      </c>
+      <c r="F420">
+        <v>14</v>
+      </c>
+      <c r="G420">
+        <v>21</v>
+      </c>
+      <c r="H420">
+        <v>1</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>1</v>
+      </c>
+      <c r="K420">
+        <v>153</v>
+      </c>
+      <c r="L420">
+        <v>139</v>
+      </c>
+      <c r="M420">
+        <v>174</v>
+      </c>
+      <c r="N420">
+        <v>54</v>
+      </c>
+      <c r="O420">
+        <v>95</v>
+      </c>
+      <c r="P420">
+        <v>3</v>
+      </c>
+      <c r="Q420">
+        <v>0</v>
+      </c>
+      <c r="R420">
+        <v>8</v>
+      </c>
+      <c r="S420">
+        <v>69</v>
+      </c>
+      <c r="T420">
+        <v>46</v>
+      </c>
+      <c r="U420">
+        <v>84</v>
+      </c>
+      <c r="V420">
+        <v>31</v>
+      </c>
+      <c r="W420">
+        <v>48</v>
+      </c>
+      <c r="X420">
+        <v>6</v>
+      </c>
+      <c r="Y420">
+        <v>0</v>
+      </c>
+      <c r="Z420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>383</v>
+      </c>
+      <c r="B421">
+        <v>146</v>
+      </c>
+      <c r="C421">
+        <v>46</v>
+      </c>
+      <c r="D421">
+        <v>30</v>
+      </c>
+      <c r="E421">
+        <v>35</v>
+      </c>
+      <c r="F421">
+        <v>12</v>
+      </c>
+      <c r="G421">
+        <v>21</v>
+      </c>
+      <c r="H421">
+        <v>1</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="K421">
+        <v>151</v>
+      </c>
+      <c r="L421">
+        <v>150</v>
+      </c>
+      <c r="M421">
+        <v>176</v>
+      </c>
+      <c r="N421">
+        <v>58</v>
+      </c>
+      <c r="O421">
+        <v>93</v>
+      </c>
+      <c r="P421">
+        <v>3</v>
+      </c>
+      <c r="Q421">
+        <v>0</v>
+      </c>
+      <c r="R421">
+        <v>8</v>
+      </c>
+      <c r="S421">
+        <v>74</v>
+      </c>
+      <c r="T421">
+        <v>48</v>
+      </c>
+      <c r="U421">
+        <v>85</v>
+      </c>
+      <c r="V421">
+        <v>30</v>
+      </c>
+      <c r="W421">
+        <v>44</v>
+      </c>
+      <c r="X421">
+        <v>6</v>
+      </c>
+      <c r="Y421">
+        <v>0</v>
+      </c>
+      <c r="Z421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>384</v>
+      </c>
+      <c r="B422">
+        <v>142</v>
+      </c>
+      <c r="C422">
+        <v>45</v>
+      </c>
+      <c r="D422">
+        <v>31</v>
+      </c>
+      <c r="E422">
+        <v>34</v>
+      </c>
+      <c r="F422">
+        <v>11</v>
+      </c>
+      <c r="G422">
+        <v>19</v>
+      </c>
+      <c r="H422">
+        <v>1</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>1</v>
+      </c>
+      <c r="K422">
+        <v>151</v>
+      </c>
+      <c r="L422">
+        <v>150</v>
+      </c>
+      <c r="M422">
+        <v>173</v>
+      </c>
+      <c r="N422">
+        <v>57</v>
+      </c>
+      <c r="O422">
+        <v>90</v>
+      </c>
+      <c r="P422">
+        <v>3</v>
+      </c>
+      <c r="Q422">
+        <v>0</v>
+      </c>
+      <c r="R422">
+        <v>8</v>
+      </c>
+      <c r="S422">
+        <v>74</v>
+      </c>
+      <c r="T422">
+        <v>50</v>
+      </c>
+      <c r="U422">
+        <v>84</v>
+      </c>
+      <c r="V422">
+        <v>30</v>
+      </c>
+      <c r="W422">
+        <v>40</v>
+      </c>
+      <c r="X422">
+        <v>6</v>
+      </c>
+      <c r="Y422">
+        <v>0</v>
+      </c>
+      <c r="Z422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>385</v>
+      </c>
+      <c r="B423">
+        <v>135</v>
+      </c>
+      <c r="C423">
+        <v>42</v>
+      </c>
+      <c r="D423">
+        <v>31</v>
+      </c>
+      <c r="E423">
+        <v>33</v>
+      </c>
+      <c r="F423">
+        <v>10</v>
+      </c>
+      <c r="G423">
+        <v>17</v>
+      </c>
+      <c r="H423">
+        <v>1</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <v>1</v>
+      </c>
+      <c r="K423">
+        <v>146</v>
+      </c>
+      <c r="L423">
+        <v>150</v>
+      </c>
+      <c r="M423">
+        <v>167</v>
+      </c>
+      <c r="N423">
+        <v>54</v>
+      </c>
+      <c r="O423">
+        <v>89</v>
+      </c>
+      <c r="P423">
+        <v>3</v>
+      </c>
+      <c r="Q423">
+        <v>0</v>
+      </c>
+      <c r="R423">
+        <v>8</v>
+      </c>
+      <c r="S423">
+        <v>74</v>
+      </c>
+      <c r="T423">
+        <v>50</v>
+      </c>
+      <c r="U423">
+        <v>79</v>
+      </c>
+      <c r="V423">
+        <v>30</v>
+      </c>
+      <c r="W423">
+        <v>40</v>
+      </c>
+      <c r="X423">
+        <v>6</v>
+      </c>
+      <c r="Y423">
+        <v>0</v>
+      </c>
+      <c r="Z423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>386</v>
+      </c>
+      <c r="B424">
+        <v>142</v>
+      </c>
+      <c r="C424">
+        <v>41</v>
+      </c>
+      <c r="D424">
+        <v>36</v>
+      </c>
+      <c r="E424">
+        <v>36</v>
+      </c>
+      <c r="F424">
+        <v>11</v>
+      </c>
+      <c r="G424">
+        <v>17</v>
+      </c>
+      <c r="H424">
+        <v>0</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>1</v>
+      </c>
+      <c r="K424">
+        <v>151</v>
+      </c>
+      <c r="L424">
+        <v>190</v>
+      </c>
+      <c r="M424">
+        <v>178</v>
+      </c>
+      <c r="N424">
+        <v>56</v>
+      </c>
+      <c r="O424">
+        <v>74</v>
+      </c>
+      <c r="P424">
+        <v>0</v>
+      </c>
+      <c r="Q424">
+        <v>0</v>
+      </c>
+      <c r="R424">
+        <v>8</v>
+      </c>
+      <c r="S424">
+        <v>68</v>
+      </c>
+      <c r="T424">
+        <v>58</v>
+      </c>
+      <c r="U424">
+        <v>91</v>
+      </c>
+      <c r="V424">
+        <v>26</v>
+      </c>
+      <c r="W424">
+        <v>38</v>
+      </c>
+      <c r="X424">
+        <v>0</v>
+      </c>
+      <c r="Y424">
+        <v>0</v>
+      </c>
+      <c r="Z424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>387</v>
+      </c>
+      <c r="B425">
+        <v>148</v>
+      </c>
+      <c r="C425">
+        <v>43</v>
+      </c>
+      <c r="D425">
+        <v>37</v>
+      </c>
+      <c r="E425">
+        <v>39</v>
+      </c>
+      <c r="F425">
+        <v>11</v>
+      </c>
+      <c r="G425">
+        <v>17</v>
+      </c>
+      <c r="H425">
+        <v>0</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>1</v>
+      </c>
+      <c r="K425">
+        <v>145</v>
+      </c>
+      <c r="L425">
+        <v>186</v>
+      </c>
+      <c r="M425">
+        <v>200</v>
+      </c>
+      <c r="N425">
+        <v>50</v>
+      </c>
+      <c r="O425">
+        <v>58</v>
+      </c>
+      <c r="P425">
+        <v>0</v>
+      </c>
+      <c r="Q425">
+        <v>0</v>
+      </c>
+      <c r="R425">
+        <v>8</v>
+      </c>
+      <c r="S425">
+        <v>68</v>
+      </c>
+      <c r="T425">
+        <v>47</v>
+      </c>
+      <c r="U425">
+        <v>103</v>
+      </c>
+      <c r="V425">
+        <v>24</v>
+      </c>
+      <c r="W425">
+        <v>40</v>
+      </c>
+      <c r="X425">
+        <v>0</v>
+      </c>
+      <c r="Y425">
+        <v>0</v>
+      </c>
+      <c r="Z425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B426">
+        <v>153</v>
+      </c>
+      <c r="C426">
+        <v>43</v>
+      </c>
+      <c r="D426">
+        <v>36</v>
+      </c>
+      <c r="E426">
+        <v>45</v>
+      </c>
+      <c r="F426">
+        <v>12</v>
+      </c>
+      <c r="G426">
+        <v>16</v>
+      </c>
+      <c r="H426">
+        <v>0</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>1</v>
+      </c>
+      <c r="K426">
+        <v>169</v>
+      </c>
+      <c r="L426">
+        <v>150</v>
+      </c>
+      <c r="M426">
+        <v>204</v>
+      </c>
+      <c r="N426">
+        <v>62</v>
+      </c>
+      <c r="O426">
+        <v>54</v>
+      </c>
+      <c r="P426">
+        <v>0</v>
+      </c>
+      <c r="Q426">
+        <v>0</v>
+      </c>
+      <c r="R426">
+        <v>8</v>
+      </c>
+      <c r="S426">
+        <v>67</v>
+      </c>
+      <c r="T426">
+        <v>47</v>
+      </c>
+      <c r="U426">
+        <v>109</v>
+      </c>
+      <c r="V426">
+        <v>30</v>
+      </c>
+      <c r="W426">
+        <v>37</v>
+      </c>
+      <c r="X426">
+        <v>0</v>
+      </c>
+      <c r="Y426">
+        <v>0</v>
+      </c>
+      <c r="Z426">
         <v>0</v>
       </c>
     </row>
@@ -114260,9 +116177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD3EE7C-3351-4CFC-AE7D-E2DEFE6455A2}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -114271,17 +116186,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -114291,7 +116206,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -114321,7 +116236,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -114356,7 +116271,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -114376,37 +116291,37 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -114421,17 +116336,17 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -114446,7 +116361,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -114466,7 +116381,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -114476,7 +116391,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
